--- a/biology/Médecine/Anomalies_de_fermeture_de_la_paroi_antérieure/Anomalies_de_fermeture_de_la_paroi_antérieure.xlsx
+++ b/biology/Médecine/Anomalies_de_fermeture_de_la_paroi_antérieure/Anomalies_de_fermeture_de_la_paroi_antérieure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anomalies_de_fermeture_de_la_paroi_ant%C3%A9rieure</t>
+          <t>Anomalies_de_fermeture_de_la_paroi_antérieure</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les anomalies de fermeture de la paroi antérieure comprennent l'ensemble des troubles de la fermeture de la paroi antérieure de l'abdomen et du thorax au cours de l'embryogenèse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anomalies_de_fermeture_de_la_paroi_ant%C3%A9rieure</t>
+          <t>Anomalies_de_fermeture_de_la_paroi_antérieure</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Laparoschisis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le laparoschisis est une fermeture incomplète de la paroi abdominale.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Anomalies_de_fermeture_de_la_paroi_ant%C3%A9rieure</t>
+          <t>Anomalies_de_fermeture_de_la_paroi_antérieure</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Omphalocèle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'omphalocèle est une absence de fermeture de la paroi abdominale.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Anomalies_de_fermeture_de_la_paroi_ant%C3%A9rieure</t>
+          <t>Anomalies_de_fermeture_de_la_paroi_antérieure</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,6 +590,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -581,7 +599,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Anomalies_de_fermeture_de_la_paroi_ant%C3%A9rieure</t>
+          <t>Anomalies_de_fermeture_de_la_paroi_antérieure</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -599,7 +617,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Fetology  (ISBN 0-83852-570-9)
  Portail de la médecine                     </t>
